--- a/scenarios/reference/scenario_inputs_reference.xlsx
+++ b/scenarios/reference/scenario_inputs_reference.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://carb-my.sharepoint.com/personal/jeff_kessler_arb_ca_gov/Documents/Documents/GitHub/CATS/scenarios/reference/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkessler\Documents\GitHub\CATS-Model\scenarios\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{F9506FC8-550A-4016-9817-DA8B7A8369EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE6A7B7B-85A9-495D-AB37-A73B1F9BD7A5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66F9BBA-45B2-41C4-A286-F3640C8AD2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3165" yWindow="2025" windowWidth="25635" windowHeight="15255" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy Demand" sheetId="1" r:id="rId1"/>
     <sheet name="Defined Supply" sheetId="2" r:id="rId2"/>
     <sheet name="Fuel Production" sheetId="3" r:id="rId3"/>
-    <sheet name="Coproducts" sheetId="10" r:id="rId4"/>
-    <sheet name="Production Limits" sheetId="4" r:id="rId5"/>
-    <sheet name="Feedstock" sheetId="5" r:id="rId6"/>
-    <sheet name="LCFS Benchmark" sheetId="11" r:id="rId7"/>
-    <sheet name="Credit Type Limits" sheetId="7" r:id="rId8"/>
-    <sheet name="Blend Requirements" sheetId="9" r:id="rId9"/>
-    <sheet name="Additional Credits" sheetId="8" r:id="rId10"/>
+    <sheet name="Feedstock Limits" sheetId="12" r:id="rId4"/>
+    <sheet name="Coproducts" sheetId="10" r:id="rId5"/>
+    <sheet name="Production Limits" sheetId="4" r:id="rId6"/>
+    <sheet name="Feedstock" sheetId="5" r:id="rId7"/>
+    <sheet name="LCFS Benchmark" sheetId="11" r:id="rId8"/>
+    <sheet name="Credit Type Limits" sheetId="7" r:id="rId9"/>
+    <sheet name="Blend Requirements" sheetId="9" r:id="rId10"/>
+    <sheet name="Additional Credits" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Fuel Production'!$A$1:$U$64</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Production Limits'!$A$1:$D$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Production Limits'!$A$1:$D$113</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="189">
   <si>
     <t>Year</t>
   </si>
@@ -608,6 +609,9 @@
   </si>
   <si>
     <t>Electricity for HDVs (Dairy)</t>
+  </si>
+  <si>
+    <t>Feedstock Name</t>
   </si>
 </sst>
 </file>
@@ -616,8 +620,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -697,7 +701,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -706,30 +710,22 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -1046,22 +1042,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="16"/>
-    <col min="4" max="4" width="12.85546875" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="16"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="14" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3810,49 +3804,49 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="18"/>
-      <c r="B198" s="15"/>
-      <c r="D198" s="18"/>
+      <c r="A198" s="13"/>
+      <c r="B198" s="12"/>
+      <c r="D198" s="13"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="18"/>
-      <c r="B199" s="15"/>
-      <c r="D199" s="18"/>
+      <c r="A199" s="13"/>
+      <c r="B199" s="12"/>
+      <c r="D199" s="13"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="18"/>
-      <c r="B200" s="15"/>
-      <c r="D200" s="18"/>
+      <c r="A200" s="13"/>
+      <c r="B200" s="12"/>
+      <c r="D200" s="13"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="18"/>
-      <c r="B201" s="15"/>
-      <c r="D201" s="18"/>
+      <c r="A201" s="13"/>
+      <c r="B201" s="12"/>
+      <c r="D201" s="13"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="18"/>
-      <c r="B202" s="15"/>
-      <c r="D202" s="18"/>
+      <c r="A202" s="13"/>
+      <c r="B202" s="12"/>
+      <c r="D202" s="13"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="18"/>
-      <c r="B203" s="15"/>
-      <c r="D203" s="18"/>
+      <c r="A203" s="13"/>
+      <c r="B203" s="12"/>
+      <c r="D203" s="13"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="18"/>
-      <c r="B204" s="15"/>
-      <c r="D204" s="18"/>
+      <c r="A204" s="13"/>
+      <c r="B204" s="12"/>
+      <c r="D204" s="13"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="18"/>
-      <c r="B205" s="15"/>
-      <c r="D205" s="18"/>
+      <c r="A205" s="13"/>
+      <c r="B205" s="12"/>
+      <c r="D205" s="13"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="18"/>
-      <c r="B206" s="15"/>
-      <c r="D206" s="18"/>
+      <c r="A206" s="13"/>
+      <c r="B206" s="12"/>
+      <c r="D206" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3862,6 +3856,1142 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:N63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2020</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="E2">
+        <v>7.0400000000000004E-2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="E3">
+        <v>7.0400000000000004E-2</v>
+      </c>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2022</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="E4">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2023</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="E5">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2024</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="E6">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2025</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <f>D6*0.6</f>
+        <v>3.7979999999999993E-2</v>
+      </c>
+      <c r="E7">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2026</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D12" si="0">D7*0.6</f>
+        <v>2.2787999999999996E-2</v>
+      </c>
+      <c r="E8">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2027</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.3672799999999997E-2</v>
+      </c>
+      <c r="E9">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2028</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2029</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2030</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2031</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D32" si="1">D12*0.9</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2032</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>7.0400000000000004E-2</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2033</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>7.0400000000000004E-2</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2034</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2035</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2036</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2037</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2038</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2039</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2040</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2041</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2042</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2043</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2044</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2045</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2046</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2047</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2048</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2049</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2050</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2020</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0.161</v>
+      </c>
+      <c r="F33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2021</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2022</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2023</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2024</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2025</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2026</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2027</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2028</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2029</v>
+      </c>
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2030</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2031</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2032</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2033</v>
+      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2034</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2035</v>
+      </c>
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2036</v>
+      </c>
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2037</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2038</v>
+      </c>
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2039</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2040</v>
+      </c>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2041</v>
+      </c>
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2042</v>
+      </c>
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2043</v>
+      </c>
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2044</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2045</v>
+      </c>
+      <c r="B58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2046</v>
+      </c>
+      <c r="B59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2047</v>
+      </c>
+      <c r="B60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2048</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2049</v>
+      </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2050</v>
+      </c>
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0.161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F190"/>
@@ -3878,2924 +5008,2480 @@
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>2022</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2">
         <v>1024483.1000000001</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2023</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3">
         <v>1109586</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2024</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4">
         <v>1194972.1500000001</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2025</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="4">
         <v>1405136.2000000002</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>2026</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="4">
         <f>$C$5/6*5</f>
         <v>1170946.8333333335</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>2027</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="4">
         <f>$C$5/6*4</f>
         <v>936757.46666666679</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>2028</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="4">
         <f>$C$5/6*3</f>
         <v>702568.10000000009</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2029</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="4">
         <f>$C$5/6*2</f>
         <v>468378.7333333334</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>2030</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="4">
         <f>$C$5/6*1</f>
         <v>234189.3666666667</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>2022</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11">
         <f>C12</f>
         <v>-3200</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>2023</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12">
         <f>-3200</f>
         <v>-3200</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>2024</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13">
         <f t="shared" ref="C13:C34" si="0">-3200</f>
         <v>-3200</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>2025</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14">
         <f t="shared" si="0"/>
         <v>-3200</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>2026</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15">
         <f t="shared" si="0"/>
         <v>-3200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>2027</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16">
         <f t="shared" si="0"/>
         <v>-3200</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>2028</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17">
         <f t="shared" si="0"/>
         <v>-3200</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>2029</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18">
         <f t="shared" si="0"/>
         <v>-3200</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>2030</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19">
         <f t="shared" si="0"/>
         <v>-3200</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>2031</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20">
         <f t="shared" si="0"/>
         <v>-3200</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>2032</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21">
         <f t="shared" si="0"/>
         <v>-3200</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>2033</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22">
         <f t="shared" si="0"/>
         <v>-3200</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>2034</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23">
         <f t="shared" si="0"/>
         <v>-3200</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>2035</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24">
         <f t="shared" si="0"/>
         <v>-3200</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>2036</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25">
         <f t="shared" si="0"/>
         <v>-3200</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>2037</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26">
         <f t="shared" si="0"/>
         <v>-3200</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>2038</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27">
         <f t="shared" si="0"/>
         <v>-3200</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>2039</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28">
         <f t="shared" si="0"/>
         <v>-3200</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>2040</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29">
         <f t="shared" si="0"/>
         <v>-3200</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>2041</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30">
         <f t="shared" si="0"/>
         <v>-3200</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>2042</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31">
         <f t="shared" si="0"/>
         <v>-3200</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>2043</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32">
         <f t="shared" si="0"/>
         <v>-3200</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>2044</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33">
         <f t="shared" si="0"/>
         <v>-3200</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>2045</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34">
         <f t="shared" si="0"/>
         <v>-3200</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>2022</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="4">
         <v>220000</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" t="s">
         <v>156</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>2023</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="4">
         <v>220000</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" t="s">
         <v>156</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>2024</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="4">
         <v>220000</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" t="s">
         <v>156</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>2025</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="4">
         <v>220000</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" t="s">
         <v>156</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>2026</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="4">
         <v>220000</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" t="s">
         <v>156</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>2027</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="4">
         <v>220000</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" t="s">
         <v>156</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>2028</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="4">
         <v>220000</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" t="s">
         <v>156</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>2029</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="4">
         <v>220000</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" t="s">
         <v>156</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>2030</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="4">
         <v>220000</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" t="s">
         <v>156</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>2031</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="4">
         <v>220000</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" t="s">
         <v>156</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="14">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>2032</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="4">
         <v>220000</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" t="s">
         <v>156</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>2033</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="4">
         <v>220000</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" t="s">
         <v>156</v>
       </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="14">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>2034</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="4">
         <v>220000</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" t="s">
         <v>156</v>
       </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="14">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>2035</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="4">
         <v>220000</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" t="s">
         <v>156</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="14">
+      <c r="A49">
         <v>2036</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="4">
         <v>220000</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" t="s">
         <v>156</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
+      <c r="A50">
         <v>2037</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="4">
         <v>220000</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" t="s">
         <v>156</v>
       </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
+      <c r="A51">
         <v>2038</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="4">
         <v>220000</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" t="s">
         <v>156</v>
       </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="14">
+      <c r="A52">
         <v>2039</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="4">
         <v>220000</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" t="s">
         <v>156</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="14">
+      <c r="A53">
         <v>2040</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="4">
         <v>220000</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" t="s">
         <v>156</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="14">
+      <c r="A54">
         <v>2041</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="4">
         <v>220000</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" t="s">
         <v>156</v>
       </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="14">
+      <c r="A55">
         <v>2042</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="4">
         <v>220000</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" t="s">
         <v>156</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="14">
+      <c r="A56">
         <v>2043</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="4">
         <v>220000</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" t="s">
         <v>156</v>
       </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="14">
+      <c r="A57">
         <v>2044</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="4">
         <v>220000</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" t="s">
         <v>156</v>
       </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="14">
+      <c r="A58">
         <v>2045</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="4">
         <v>220000</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" t="s">
         <v>156</v>
       </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="14">
+      <c r="A59">
         <v>2046</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="4">
         <v>220000</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" t="s">
         <v>156</v>
       </c>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="14">
+      <c r="A60">
         <v>2047</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" t="s">
         <v>111</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="4">
         <v>220000</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" t="s">
         <v>156</v>
       </c>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="14">
+      <c r="A61">
         <v>2048</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="4">
         <v>220000</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" t="s">
         <v>156</v>
       </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="14">
+      <c r="A62">
         <v>2049</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" t="s">
         <v>111</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="4">
         <v>220000</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D62" t="s">
         <v>156</v>
       </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="14">
+      <c r="A63">
         <v>2050</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" t="s">
         <v>111</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="4">
         <v>220000</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" t="s">
         <v>156</v>
       </c>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14">
+      <c r="A64">
         <v>2022</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="4">
         <f>E64</f>
         <v>1276948</v>
       </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="20">
+      <c r="D64" s="15"/>
+      <c r="E64" s="4">
         <f t="shared" ref="E64:E92" si="1">(26415*(A64-2019+5)+107917)*4</f>
         <v>1276948</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F64" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="14">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>2023</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" t="s">
         <v>112</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="4">
         <f t="shared" ref="C65:C92" si="2">E65</f>
         <v>1382608</v>
       </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="20">
+      <c r="D65" s="15"/>
+      <c r="E65" s="4">
         <f t="shared" si="1"/>
         <v>1382608</v>
       </c>
-      <c r="F65" s="14"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="14">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>2024</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" t="s">
         <v>112</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="4">
         <f t="shared" si="2"/>
         <v>1488268</v>
       </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="20">
+      <c r="D66" s="15"/>
+      <c r="E66" s="4">
         <f t="shared" si="1"/>
         <v>1488268</v>
       </c>
-      <c r="F66" s="14"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="14">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>2025</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" t="s">
         <v>112</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="4">
         <f t="shared" si="2"/>
         <v>1593928</v>
       </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="20">
+      <c r="D67" s="15"/>
+      <c r="E67" s="4">
         <f t="shared" si="1"/>
         <v>1593928</v>
       </c>
-      <c r="F67" s="14"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="14">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>2026</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" t="s">
         <v>112</v>
       </c>
-      <c r="C68" s="20">
+      <c r="C68" s="4">
         <f t="shared" si="2"/>
         <v>1699588</v>
       </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="20">
+      <c r="D68" s="15"/>
+      <c r="E68" s="4">
         <f t="shared" si="1"/>
         <v>1699588</v>
       </c>
-      <c r="F68" s="14"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="14">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>2027</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" t="s">
         <v>112</v>
       </c>
-      <c r="C69" s="20">
+      <c r="C69" s="4">
         <f t="shared" si="2"/>
         <v>1805248</v>
       </c>
-      <c r="D69" s="21"/>
-      <c r="E69" s="20">
+      <c r="D69" s="15"/>
+      <c r="E69" s="4">
         <f t="shared" si="1"/>
         <v>1805248</v>
       </c>
-      <c r="F69" s="14"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="14">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>2028</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" t="s">
         <v>112</v>
       </c>
-      <c r="C70" s="20">
+      <c r="C70" s="4">
         <f t="shared" si="2"/>
         <v>1910908</v>
       </c>
-      <c r="D70" s="21"/>
-      <c r="E70" s="20">
+      <c r="D70" s="15"/>
+      <c r="E70" s="4">
         <f t="shared" si="1"/>
         <v>1910908</v>
       </c>
-      <c r="F70" s="14"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="14">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>2029</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" t="s">
         <v>112</v>
       </c>
-      <c r="C71" s="20">
+      <c r="C71" s="4">
         <f t="shared" si="2"/>
         <v>2016568</v>
       </c>
-      <c r="D71" s="21"/>
-      <c r="E71" s="20">
+      <c r="D71" s="15"/>
+      <c r="E71" s="4">
         <f t="shared" si="1"/>
         <v>2016568</v>
       </c>
-      <c r="F71" s="14"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="14">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>2030</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" t="s">
         <v>112</v>
       </c>
-      <c r="C72" s="20">
+      <c r="C72" s="4">
         <f t="shared" si="2"/>
         <v>2122228</v>
       </c>
-      <c r="D72" s="21"/>
-      <c r="E72" s="20">
+      <c r="D72" s="15"/>
+      <c r="E72" s="4">
         <f t="shared" si="1"/>
         <v>2122228</v>
       </c>
-      <c r="F72" s="14"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="14">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>2031</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" t="s">
         <v>112</v>
       </c>
-      <c r="C73" s="20">
+      <c r="C73" s="4">
         <f t="shared" si="2"/>
         <v>2227888</v>
       </c>
-      <c r="D73" s="21"/>
-      <c r="E73" s="20">
+      <c r="D73" s="15"/>
+      <c r="E73" s="4">
         <f t="shared" si="1"/>
         <v>2227888</v>
       </c>
-      <c r="F73" s="14"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="14">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>2032</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" t="s">
         <v>112</v>
       </c>
-      <c r="C74" s="20">
+      <c r="C74" s="4">
         <f t="shared" si="2"/>
         <v>2333548</v>
       </c>
-      <c r="D74" s="21"/>
-      <c r="E74" s="20">
+      <c r="D74" s="15"/>
+      <c r="E74" s="4">
         <f t="shared" si="1"/>
         <v>2333548</v>
       </c>
-      <c r="F74" s="14"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="14">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>2033</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" t="s">
         <v>112</v>
       </c>
-      <c r="C75" s="20">
+      <c r="C75" s="4">
         <f t="shared" si="2"/>
         <v>2439208</v>
       </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="20">
+      <c r="D75" s="15"/>
+      <c r="E75" s="4">
         <f t="shared" si="1"/>
         <v>2439208</v>
       </c>
-      <c r="F75" s="14"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="14">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>2034</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" t="s">
         <v>112</v>
       </c>
-      <c r="C76" s="20">
+      <c r="C76" s="4">
         <f t="shared" si="2"/>
         <v>2544868</v>
       </c>
-      <c r="D76" s="21"/>
-      <c r="E76" s="20">
+      <c r="D76" s="15"/>
+      <c r="E76" s="4">
         <f t="shared" si="1"/>
         <v>2544868</v>
       </c>
-      <c r="F76" s="14"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="14">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>2035</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" t="s">
         <v>112</v>
       </c>
-      <c r="C77" s="20">
+      <c r="C77" s="4">
         <f t="shared" si="2"/>
         <v>2650528</v>
       </c>
-      <c r="D77" s="21"/>
-      <c r="E77" s="20">
+      <c r="D77" s="15"/>
+      <c r="E77" s="4">
         <f t="shared" si="1"/>
         <v>2650528</v>
       </c>
-      <c r="F77" s="14"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="14">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>2036</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" t="s">
         <v>112</v>
       </c>
-      <c r="C78" s="20">
+      <c r="C78" s="4">
         <f t="shared" si="2"/>
         <v>2756188</v>
       </c>
-      <c r="D78" s="21"/>
-      <c r="E78" s="20">
+      <c r="D78" s="15"/>
+      <c r="E78" s="4">
         <f t="shared" si="1"/>
         <v>2756188</v>
       </c>
-      <c r="F78" s="14"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="14">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>2037</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" t="s">
         <v>112</v>
       </c>
-      <c r="C79" s="20">
+      <c r="C79" s="4">
         <f t="shared" si="2"/>
         <v>2861848</v>
       </c>
-      <c r="D79" s="21"/>
-      <c r="E79" s="20">
+      <c r="D79" s="15"/>
+      <c r="E79" s="4">
         <f t="shared" si="1"/>
         <v>2861848</v>
       </c>
-      <c r="F79" s="14"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="14">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>2038</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" t="s">
         <v>112</v>
       </c>
-      <c r="C80" s="20">
+      <c r="C80" s="4">
         <f t="shared" si="2"/>
         <v>2967508</v>
       </c>
-      <c r="D80" s="21"/>
-      <c r="E80" s="20">
+      <c r="D80" s="15"/>
+      <c r="E80" s="4">
         <f t="shared" si="1"/>
         <v>2967508</v>
       </c>
-      <c r="F80" s="14"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="14">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>2039</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" t="s">
         <v>112</v>
       </c>
-      <c r="C81" s="20">
+      <c r="C81" s="4">
         <f t="shared" si="2"/>
         <v>3073168</v>
       </c>
-      <c r="D81" s="21"/>
-      <c r="E81" s="20">
+      <c r="D81" s="15"/>
+      <c r="E81" s="4">
         <f t="shared" si="1"/>
         <v>3073168</v>
       </c>
-      <c r="F81" s="14"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="14">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>2040</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" t="s">
         <v>112</v>
       </c>
-      <c r="C82" s="20">
+      <c r="C82" s="4">
         <f t="shared" si="2"/>
         <v>3178828</v>
       </c>
-      <c r="D82" s="21"/>
-      <c r="E82" s="20">
+      <c r="D82" s="15"/>
+      <c r="E82" s="4">
         <f t="shared" si="1"/>
         <v>3178828</v>
       </c>
-      <c r="F82" s="14"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="14">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>2041</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" t="s">
         <v>112</v>
       </c>
-      <c r="C83" s="20">
+      <c r="C83" s="4">
         <f t="shared" si="2"/>
         <v>3284488</v>
       </c>
-      <c r="D83" s="21"/>
-      <c r="E83" s="20">
+      <c r="D83" s="15"/>
+      <c r="E83" s="4">
         <f t="shared" si="1"/>
         <v>3284488</v>
       </c>
-      <c r="F83" s="14"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="14">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>2042</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" t="s">
         <v>112</v>
       </c>
-      <c r="C84" s="20">
+      <c r="C84" s="4">
         <f t="shared" si="2"/>
         <v>3390148</v>
       </c>
-      <c r="D84" s="21"/>
-      <c r="E84" s="20">
+      <c r="D84" s="15"/>
+      <c r="E84" s="4">
         <f t="shared" si="1"/>
         <v>3390148</v>
       </c>
-      <c r="F84" s="14"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="14">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>2043</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" t="s">
         <v>112</v>
       </c>
-      <c r="C85" s="20">
+      <c r="C85" s="4">
         <f t="shared" si="2"/>
         <v>3495808</v>
       </c>
-      <c r="D85" s="21"/>
-      <c r="E85" s="20">
+      <c r="D85" s="15"/>
+      <c r="E85" s="4">
         <f t="shared" si="1"/>
         <v>3495808</v>
       </c>
-      <c r="F85" s="14"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="14">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>2044</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" t="s">
         <v>112</v>
       </c>
-      <c r="C86" s="20">
+      <c r="C86" s="4">
         <f t="shared" si="2"/>
         <v>3601468</v>
       </c>
-      <c r="D86" s="21"/>
-      <c r="E86" s="20">
+      <c r="D86" s="15"/>
+      <c r="E86" s="4">
         <f t="shared" si="1"/>
         <v>3601468</v>
       </c>
-      <c r="F86" s="14"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="14">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>2045</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" t="s">
         <v>112</v>
       </c>
-      <c r="C87" s="20">
+      <c r="C87" s="4">
         <f t="shared" si="2"/>
         <v>3707128</v>
       </c>
-      <c r="D87" s="21"/>
-      <c r="E87" s="20">
+      <c r="D87" s="15"/>
+      <c r="E87" s="4">
         <f t="shared" si="1"/>
         <v>3707128</v>
       </c>
-      <c r="F87" s="14"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="14">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>2046</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" t="s">
         <v>112</v>
       </c>
-      <c r="C88" s="20">
+      <c r="C88" s="4">
         <f t="shared" si="2"/>
         <v>3812788</v>
       </c>
-      <c r="D88" s="21"/>
-      <c r="E88" s="20">
+      <c r="D88" s="15"/>
+      <c r="E88" s="4">
         <f t="shared" si="1"/>
         <v>3812788</v>
       </c>
-      <c r="F88" s="14"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="14">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>2047</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" t="s">
         <v>112</v>
       </c>
-      <c r="C89" s="20">
+      <c r="C89" s="4">
         <f t="shared" si="2"/>
         <v>3918448</v>
       </c>
-      <c r="D89" s="21"/>
-      <c r="E89" s="20">
+      <c r="D89" s="15"/>
+      <c r="E89" s="4">
         <f t="shared" si="1"/>
         <v>3918448</v>
       </c>
-      <c r="F89" s="14"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="14">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>2048</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" t="s">
         <v>112</v>
       </c>
-      <c r="C90" s="20">
+      <c r="C90" s="4">
         <f t="shared" si="2"/>
         <v>4024108</v>
       </c>
-      <c r="D90" s="21"/>
-      <c r="E90" s="20">
+      <c r="D90" s="15"/>
+      <c r="E90" s="4">
         <f t="shared" si="1"/>
         <v>4024108</v>
       </c>
-      <c r="F90" s="14"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="14">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>2049</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" t="s">
         <v>112</v>
       </c>
-      <c r="C91" s="20">
+      <c r="C91" s="4">
         <f t="shared" si="2"/>
         <v>4129768</v>
       </c>
-      <c r="D91" s="21"/>
-      <c r="E91" s="20">
+      <c r="D91" s="15"/>
+      <c r="E91" s="4">
         <f t="shared" si="1"/>
         <v>4129768</v>
       </c>
-      <c r="F91" s="14"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="14">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>2050</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" t="s">
         <v>112</v>
       </c>
-      <c r="C92" s="20">
+      <c r="C92" s="4">
         <f t="shared" si="2"/>
         <v>4235428</v>
       </c>
-      <c r="D92" s="21"/>
-      <c r="E92" s="20">
+      <c r="D92" s="15"/>
+      <c r="E92" s="4">
         <f t="shared" si="1"/>
         <v>4235428</v>
       </c>
-      <c r="F92" s="14"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="14">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>2022</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" t="s">
         <v>113</v>
       </c>
-      <c r="C93" s="20">
+      <c r="C93" s="4">
         <v>320000</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="D93" t="s">
         <v>157</v>
       </c>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="14">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>2023</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" t="s">
         <v>113</v>
       </c>
-      <c r="C94" s="20">
+      <c r="C94" s="4">
         <v>320000</v>
       </c>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="14">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>2024</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" t="s">
         <v>113</v>
       </c>
-      <c r="C95" s="20">
+      <c r="C95" s="4">
         <v>320000</v>
       </c>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="14">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>2025</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" t="s">
         <v>113</v>
       </c>
-      <c r="C96" s="20">
+      <c r="C96" s="4">
         <v>320000</v>
       </c>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="14">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>2026</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" t="s">
         <v>113</v>
       </c>
-      <c r="C97" s="20">
+      <c r="C97" s="4">
         <v>320000</v>
       </c>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="14">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>2027</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" t="s">
         <v>113</v>
       </c>
-      <c r="C98" s="20">
+      <c r="C98" s="4">
         <v>320000</v>
       </c>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="14">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>2028</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" t="s">
         <v>113</v>
       </c>
-      <c r="C99" s="20">
+      <c r="C99" s="4">
         <v>320000</v>
       </c>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="14">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>2029</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" t="s">
         <v>113</v>
       </c>
-      <c r="C100" s="20">
+      <c r="C100" s="4">
         <v>320000</v>
       </c>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="14">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>2030</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" t="s">
         <v>113</v>
       </c>
-      <c r="C101" s="20">
+      <c r="C101" s="4">
         <v>320000</v>
       </c>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="14">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>2031</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" t="s">
         <v>113</v>
       </c>
-      <c r="C102" s="20">
+      <c r="C102" s="4">
         <v>320000</v>
       </c>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="14">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>2032</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" t="s">
         <v>113</v>
       </c>
-      <c r="C103" s="20">
+      <c r="C103" s="4">
         <v>320000</v>
       </c>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="14">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>2033</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" t="s">
         <v>113</v>
       </c>
-      <c r="C104" s="20">
+      <c r="C104" s="4">
         <v>320000</v>
       </c>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="14">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>2034</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" t="s">
         <v>113</v>
       </c>
-      <c r="C105" s="20">
+      <c r="C105" s="4">
         <v>320000</v>
       </c>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="14">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>2035</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B106" t="s">
         <v>113</v>
       </c>
-      <c r="C106" s="20">
+      <c r="C106" s="4">
         <v>320000</v>
       </c>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="14">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>2036</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" t="s">
         <v>113</v>
       </c>
-      <c r="C107" s="20">
+      <c r="C107" s="4">
         <v>320000</v>
       </c>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="14">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>2037</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B108" t="s">
         <v>113</v>
       </c>
-      <c r="C108" s="20">
+      <c r="C108" s="4">
         <v>320000</v>
       </c>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="14">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>2038</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B109" t="s">
         <v>113</v>
       </c>
-      <c r="C109" s="20">
+      <c r="C109" s="4">
         <v>320000</v>
       </c>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="14">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>2039</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B110" t="s">
         <v>113</v>
       </c>
-      <c r="C110" s="20">
+      <c r="C110" s="4">
         <v>320000</v>
       </c>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="14">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>2040</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" t="s">
         <v>113</v>
       </c>
-      <c r="C111" s="20">
+      <c r="C111" s="4">
         <v>320000</v>
       </c>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="14">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>2041</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" t="s">
         <v>113</v>
       </c>
-      <c r="C112" s="20">
+      <c r="C112" s="4">
         <v>320000</v>
       </c>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="14">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>2042</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" t="s">
         <v>113</v>
       </c>
-      <c r="C113" s="20">
+      <c r="C113" s="4">
         <v>320000</v>
       </c>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="14">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>2043</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" t="s">
         <v>113</v>
       </c>
-      <c r="C114" s="20">
+      <c r="C114" s="4">
         <v>320000</v>
       </c>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="14">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>2044</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" t="s">
         <v>113</v>
       </c>
-      <c r="C115" s="20">
+      <c r="C115" s="4">
         <v>320000</v>
       </c>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="14">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>2045</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="20">
+      <c r="C116" s="4">
         <v>320000</v>
       </c>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="14">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>2046</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" t="s">
         <v>113</v>
       </c>
-      <c r="C117" s="20">
+      <c r="C117" s="4">
         <v>320000</v>
       </c>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="14">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>2047</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B118" t="s">
         <v>113</v>
       </c>
-      <c r="C118" s="20">
+      <c r="C118" s="4">
         <v>320000</v>
       </c>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="14">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>2048</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" t="s">
         <v>113</v>
       </c>
-      <c r="C119" s="20">
+      <c r="C119" s="4">
         <v>320000</v>
       </c>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="14">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>2049</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" t="s">
         <v>113</v>
       </c>
-      <c r="C120" s="20">
+      <c r="C120" s="4">
         <v>320000</v>
       </c>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="14">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>2050</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" t="s">
         <v>113</v>
       </c>
-      <c r="C121" s="20">
+      <c r="C121" s="4">
         <v>320000</v>
       </c>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="14">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>2022</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" t="s">
         <v>143</v>
       </c>
-      <c r="C122" s="20">
-        <v>0</v>
-      </c>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="14">
+      <c r="C122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>2023</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" t="s">
         <v>143</v>
       </c>
-      <c r="C123" s="20">
-        <v>0</v>
-      </c>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="14">
+      <c r="C123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>2024</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" t="s">
         <v>143</v>
       </c>
-      <c r="C124" s="20">
-        <v>0</v>
-      </c>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="14">
+      <c r="C124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>2025</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" t="s">
         <v>143</v>
       </c>
-      <c r="C125" s="20">
-        <v>0</v>
-      </c>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="14">
+      <c r="C125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>2026</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B126" t="s">
         <v>143</v>
       </c>
-      <c r="C126" s="20">
-        <v>0</v>
-      </c>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="14">
+      <c r="C126" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>2027</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" t="s">
         <v>143</v>
       </c>
-      <c r="C127" s="20">
-        <v>0</v>
-      </c>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="14">
+      <c r="C127" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>2028</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" t="s">
         <v>143</v>
       </c>
-      <c r="C128" s="20">
-        <v>0</v>
-      </c>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="14">
+      <c r="C128" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>2029</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" t="s">
         <v>143</v>
       </c>
-      <c r="C129" s="20">
-        <v>0</v>
-      </c>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="14">
+      <c r="C129" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
         <v>2030</v>
       </c>
-      <c r="B130" s="14" t="s">
+      <c r="B130" t="s">
         <v>143</v>
       </c>
-      <c r="C130" s="20">
-        <v>0</v>
-      </c>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="14">
+      <c r="C130" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>2031</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B131" t="s">
         <v>143</v>
       </c>
-      <c r="C131" s="20">
-        <v>0</v>
-      </c>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="14">
+      <c r="C131" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>2032</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B132" t="s">
         <v>143</v>
       </c>
-      <c r="C132" s="20">
-        <v>0</v>
-      </c>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="14">
+      <c r="C132" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>2033</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" t="s">
         <v>143</v>
       </c>
-      <c r="C133" s="20">
-        <v>0</v>
-      </c>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="14">
+      <c r="C133" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
         <v>2034</v>
       </c>
-      <c r="B134" s="14" t="s">
+      <c r="B134" t="s">
         <v>143</v>
       </c>
-      <c r="C134" s="20">
-        <v>0</v>
-      </c>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="14">
+      <c r="C134" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>2035</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B135" t="s">
         <v>143</v>
       </c>
-      <c r="C135" s="20">
-        <v>0</v>
-      </c>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="14">
+      <c r="C135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>2036</v>
       </c>
-      <c r="B136" s="14" t="s">
+      <c r="B136" t="s">
         <v>143</v>
       </c>
-      <c r="C136" s="20">
-        <v>0</v>
-      </c>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="14">
+      <c r="C136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>2037</v>
       </c>
-      <c r="B137" s="14" t="s">
+      <c r="B137" t="s">
         <v>143</v>
       </c>
-      <c r="C137" s="20">
-        <v>0</v>
-      </c>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="14">
+      <c r="C137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
         <v>2038</v>
       </c>
-      <c r="B138" s="14" t="s">
+      <c r="B138" t="s">
         <v>143</v>
       </c>
-      <c r="C138" s="20">
-        <v>0</v>
-      </c>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="14">
+      <c r="C138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
         <v>2039</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" t="s">
         <v>143</v>
       </c>
-      <c r="C139" s="20">
-        <v>0</v>
-      </c>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="14">
+      <c r="C139" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>2040</v>
       </c>
-      <c r="B140" s="14" t="s">
+      <c r="B140" t="s">
         <v>143</v>
       </c>
-      <c r="C140" s="14">
-        <v>0</v>
-      </c>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="14">
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>2041</v>
       </c>
-      <c r="B141" s="14" t="s">
+      <c r="B141" t="s">
         <v>143</v>
       </c>
-      <c r="C141" s="14">
-        <v>0</v>
-      </c>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="14">
+      <c r="C141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
         <v>2042</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" t="s">
         <v>143</v>
       </c>
-      <c r="C142" s="14">
-        <v>0</v>
-      </c>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="14">
+      <c r="C142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
         <v>2043</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B143" t="s">
         <v>143</v>
       </c>
-      <c r="C143" s="14">
-        <v>0</v>
-      </c>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="14">
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>2044</v>
       </c>
-      <c r="B144" s="14" t="s">
+      <c r="B144" t="s">
         <v>143</v>
       </c>
-      <c r="C144" s="14">
-        <v>0</v>
-      </c>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="14">
+      <c r="C144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
         <v>2045</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B145" t="s">
         <v>143</v>
       </c>
-      <c r="C145" s="14">
-        <v>0</v>
-      </c>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="14">
+      <c r="C145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>2046</v>
       </c>
-      <c r="B146" s="14" t="s">
+      <c r="B146" t="s">
         <v>143</v>
       </c>
-      <c r="C146" s="14">
-        <v>0</v>
-      </c>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="14">
+      <c r="C146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
         <v>2022</v>
       </c>
-      <c r="B147" s="14" t="s">
+      <c r="B147" t="s">
         <v>141</v>
       </c>
-      <c r="C147" s="20">
-        <v>0</v>
-      </c>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="14">
+      <c r="C147" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>2023</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B148" t="s">
         <v>141</v>
       </c>
-      <c r="C148" s="20">
-        <v>0</v>
-      </c>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="14">
+      <c r="C148" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>2024</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" t="s">
         <v>141</v>
       </c>
-      <c r="C149" s="20">
-        <v>0</v>
-      </c>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="14">
+      <c r="C149" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>2025</v>
       </c>
-      <c r="B150" s="14" t="s">
+      <c r="B150" t="s">
         <v>141</v>
       </c>
-      <c r="C150" s="20">
-        <v>0</v>
-      </c>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="14">
+      <c r="C150" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
         <v>2026</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="B151" t="s">
         <v>141</v>
       </c>
-      <c r="C151" s="20">
-        <v>0</v>
-      </c>
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="14">
+      <c r="C151" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
         <v>2027</v>
       </c>
-      <c r="B152" s="14" t="s">
+      <c r="B152" t="s">
         <v>141</v>
       </c>
-      <c r="C152" s="20">
-        <v>0</v>
-      </c>
-      <c r="D152" s="20"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="14">
+      <c r="C152" s="4">
+        <v>0</v>
+      </c>
+      <c r="D152" s="4"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
         <v>2028</v>
       </c>
-      <c r="B153" s="14" t="s">
+      <c r="B153" t="s">
         <v>141</v>
       </c>
-      <c r="C153" s="20">
-        <v>0</v>
-      </c>
-      <c r="D153" s="20"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="14">
+      <c r="C153" s="4">
+        <v>0</v>
+      </c>
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
         <v>2029</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B154" t="s">
         <v>141</v>
       </c>
-      <c r="C154" s="20">
-        <v>0</v>
-      </c>
-      <c r="D154" s="20"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="14">
+      <c r="C154" s="4">
+        <v>0</v>
+      </c>
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
         <v>2030</v>
       </c>
-      <c r="B155" s="14" t="s">
+      <c r="B155" t="s">
         <v>141</v>
       </c>
-      <c r="C155" s="20">
-        <v>0</v>
-      </c>
-      <c r="D155" s="20"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="14"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="14">
+      <c r="C155" s="4">
+        <v>0</v>
+      </c>
+      <c r="D155" s="4"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
         <v>2031</v>
       </c>
-      <c r="B156" s="14" t="s">
+      <c r="B156" t="s">
         <v>141</v>
       </c>
-      <c r="C156" s="20">
-        <v>0</v>
-      </c>
-      <c r="D156" s="20"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="14">
+      <c r="C156" s="4">
+        <v>0</v>
+      </c>
+      <c r="D156" s="4"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>2032</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" t="s">
         <v>141</v>
       </c>
-      <c r="C157" s="20">
-        <v>0</v>
-      </c>
-      <c r="D157" s="20"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="14"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="14">
+      <c r="C157" s="4">
+        <v>0</v>
+      </c>
+      <c r="D157" s="4"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
         <v>2033</v>
       </c>
-      <c r="B158" s="14" t="s">
+      <c r="B158" t="s">
         <v>141</v>
       </c>
-      <c r="C158" s="20">
-        <v>0</v>
-      </c>
-      <c r="D158" s="20"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="14"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="14">
+      <c r="C158" s="4">
+        <v>0</v>
+      </c>
+      <c r="D158" s="4"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
         <v>2034</v>
       </c>
-      <c r="B159" s="14" t="s">
+      <c r="B159" t="s">
         <v>141</v>
       </c>
-      <c r="C159" s="20">
-        <v>0</v>
-      </c>
-      <c r="D159" s="20"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="14"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="14">
+      <c r="C159" s="4">
+        <v>0</v>
+      </c>
+      <c r="D159" s="4"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
         <v>2035</v>
       </c>
-      <c r="B160" s="14" t="s">
+      <c r="B160" t="s">
         <v>141</v>
       </c>
-      <c r="C160" s="20">
-        <v>0</v>
-      </c>
-      <c r="D160" s="20"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="14">
+      <c r="C160" s="4">
+        <v>0</v>
+      </c>
+      <c r="D160" s="4"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
         <v>2036</v>
       </c>
-      <c r="B161" s="14" t="s">
+      <c r="B161" t="s">
         <v>141</v>
       </c>
-      <c r="C161" s="20">
-        <v>0</v>
-      </c>
-      <c r="D161" s="20"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="14">
+      <c r="C161" s="4">
+        <v>0</v>
+      </c>
+      <c r="D161" s="4"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
         <v>2037</v>
       </c>
-      <c r="B162" s="14" t="s">
+      <c r="B162" t="s">
         <v>141</v>
       </c>
-      <c r="C162" s="20">
-        <v>0</v>
-      </c>
-      <c r="D162" s="20"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="14">
+      <c r="C162" s="4">
+        <v>0</v>
+      </c>
+      <c r="D162" s="4"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
         <v>2038</v>
       </c>
-      <c r="B163" s="14" t="s">
+      <c r="B163" t="s">
         <v>141</v>
       </c>
-      <c r="C163" s="20">
-        <v>0</v>
-      </c>
-      <c r="D163" s="14"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="14"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="14">
+      <c r="C163" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
         <v>2039</v>
       </c>
-      <c r="B164" s="14" t="s">
+      <c r="B164" t="s">
         <v>141</v>
       </c>
-      <c r="C164" s="20">
-        <v>0</v>
-      </c>
-      <c r="D164" s="14"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="14">
+      <c r="C164" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
         <v>2040</v>
       </c>
-      <c r="B165" s="14" t="s">
+      <c r="B165" t="s">
         <v>141</v>
       </c>
-      <c r="C165" s="20">
-        <v>0</v>
-      </c>
-      <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="14"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="14">
+      <c r="C165" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
         <v>2041</v>
       </c>
-      <c r="B166" s="14" t="s">
+      <c r="B166" t="s">
         <v>141</v>
       </c>
-      <c r="C166" s="20">
-        <v>0</v>
-      </c>
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="14">
+      <c r="C166" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
         <v>2042</v>
       </c>
-      <c r="B167" s="14" t="s">
+      <c r="B167" t="s">
         <v>141</v>
       </c>
-      <c r="C167" s="20">
-        <v>0</v>
-      </c>
-      <c r="D167" s="14"/>
-      <c r="E167" s="14"/>
-      <c r="F167" s="14"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="14">
+      <c r="C167" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
         <v>2043</v>
       </c>
-      <c r="B168" s="14" t="s">
+      <c r="B168" t="s">
         <v>141</v>
       </c>
-      <c r="C168" s="20">
-        <v>0</v>
-      </c>
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="14">
+      <c r="C168" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
         <v>2044</v>
       </c>
-      <c r="B169" s="14" t="s">
+      <c r="B169" t="s">
         <v>141</v>
       </c>
-      <c r="C169" s="20">
-        <v>0</v>
-      </c>
-      <c r="D169" s="14"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="14"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="14">
+      <c r="C169" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
         <v>2045</v>
       </c>
-      <c r="B170" s="14" t="s">
+      <c r="B170" t="s">
         <v>141</v>
       </c>
-      <c r="C170" s="20">
-        <v>0</v>
-      </c>
-      <c r="D170" s="14"/>
-      <c r="E170" s="14"/>
-      <c r="F170" s="14"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="14">
+      <c r="C170" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
         <v>2046</v>
       </c>
-      <c r="B171" s="14" t="s">
+      <c r="B171" t="s">
         <v>141</v>
       </c>
-      <c r="C171" s="14">
-        <v>0</v>
-      </c>
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="14"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="14">
+      <c r="C171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
         <v>2022</v>
       </c>
-      <c r="B172" s="14" t="s">
+      <c r="B172" t="s">
         <v>155</v>
       </c>
-      <c r="C172" s="20">
+      <c r="C172" s="4">
         <v>28000</v>
       </c>
-      <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="14"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="14">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
         <v>2023</v>
       </c>
-      <c r="B173" s="14" t="s">
+      <c r="B173" t="s">
         <v>155</v>
       </c>
-      <c r="C173" s="20">
+      <c r="C173" s="4">
         <v>28000</v>
       </c>
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="14"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="14">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
         <v>2024</v>
       </c>
-      <c r="B174" s="14" t="s">
+      <c r="B174" t="s">
         <v>155</v>
       </c>
-      <c r="C174" s="20">
+      <c r="C174" s="4">
         <v>28000</v>
       </c>
-      <c r="D174" s="14"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="14">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
         <v>2025</v>
       </c>
-      <c r="B175" s="14" t="s">
+      <c r="B175" t="s">
         <v>155</v>
       </c>
-      <c r="C175" s="20">
+      <c r="C175" s="4">
         <v>28000</v>
       </c>
-      <c r="D175" s="14"/>
-      <c r="E175" s="14"/>
-      <c r="F175" s="14"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="14">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
         <v>2026</v>
       </c>
-      <c r="B176" s="14" t="s">
+      <c r="B176" t="s">
         <v>155</v>
       </c>
-      <c r="C176" s="20">
+      <c r="C176" s="4">
         <v>28000</v>
       </c>
-      <c r="D176" s="14"/>
-      <c r="E176" s="14"/>
-      <c r="F176" s="14"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="14">
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
         <v>2027</v>
       </c>
-      <c r="B177" s="14" t="s">
+      <c r="B177" t="s">
         <v>155</v>
       </c>
-      <c r="C177" s="20">
+      <c r="C177" s="4">
         <v>28000</v>
       </c>
-      <c r="D177" s="14"/>
-      <c r="E177" s="14"/>
-      <c r="F177" s="14"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="14">
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
         <v>2028</v>
       </c>
-      <c r="B178" s="14" t="s">
+      <c r="B178" t="s">
         <v>155</v>
       </c>
-      <c r="C178" s="20">
+      <c r="C178" s="4">
         <v>28000</v>
       </c>
-      <c r="D178" s="14"/>
-      <c r="E178" s="14"/>
-      <c r="F178" s="14"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="14">
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
         <v>2029</v>
       </c>
-      <c r="B179" s="14" t="s">
+      <c r="B179" t="s">
         <v>155</v>
       </c>
-      <c r="C179" s="20">
+      <c r="C179" s="4">
         <v>28000</v>
       </c>
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="14"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="14">
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
         <v>2030</v>
       </c>
-      <c r="B180" s="14" t="s">
+      <c r="B180" t="s">
         <v>155</v>
       </c>
-      <c r="C180" s="20">
+      <c r="C180" s="4">
         <v>28000</v>
       </c>
-      <c r="D180" s="14"/>
-      <c r="E180" s="14"/>
-      <c r="F180" s="14"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="14">
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
         <v>2031</v>
       </c>
-      <c r="B181" s="14" t="s">
+      <c r="B181" t="s">
         <v>155</v>
       </c>
-      <c r="C181" s="20">
+      <c r="C181" s="4">
         <v>28000</v>
       </c>
-      <c r="D181" s="14"/>
-      <c r="E181" s="14"/>
-      <c r="F181" s="14"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="14">
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
         <v>2032</v>
       </c>
-      <c r="B182" s="14" t="s">
+      <c r="B182" t="s">
         <v>155</v>
       </c>
-      <c r="C182" s="20">
+      <c r="C182" s="4">
         <v>28000</v>
       </c>
-      <c r="D182" s="14"/>
-      <c r="E182" s="14"/>
-      <c r="F182" s="14"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="14">
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
         <v>2033</v>
       </c>
-      <c r="B183" s="14" t="s">
+      <c r="B183" t="s">
         <v>155</v>
       </c>
-      <c r="C183" s="20">
+      <c r="C183" s="4">
         <v>28000</v>
       </c>
-      <c r="D183" s="14"/>
-      <c r="E183" s="14"/>
-      <c r="F183" s="14"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="14">
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
         <v>2034</v>
       </c>
-      <c r="B184" s="14" t="s">
+      <c r="B184" t="s">
         <v>155</v>
       </c>
-      <c r="C184" s="20">
+      <c r="C184" s="4">
         <v>28000</v>
       </c>
-      <c r="D184" s="14"/>
-      <c r="E184" s="14"/>
-      <c r="F184" s="14"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="14">
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
         <v>2035</v>
       </c>
-      <c r="B185" s="14" t="s">
+      <c r="B185" t="s">
         <v>155</v>
       </c>
-      <c r="C185" s="20">
+      <c r="C185" s="4">
         <v>28000</v>
       </c>
-      <c r="D185" s="14"/>
-      <c r="E185" s="14"/>
-      <c r="F185" s="14"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="14">
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
         <v>2036</v>
       </c>
-      <c r="B186" s="14" t="s">
+      <c r="B186" t="s">
         <v>155</v>
       </c>
-      <c r="C186" s="20">
+      <c r="C186" s="4">
         <v>28000</v>
       </c>
-      <c r="D186" s="14"/>
-      <c r="E186" s="14"/>
-      <c r="F186" s="14"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="14">
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
         <v>2037</v>
       </c>
-      <c r="B187" s="14" t="s">
+      <c r="B187" t="s">
         <v>155</v>
       </c>
-      <c r="C187" s="20">
+      <c r="C187" s="4">
         <v>28000</v>
       </c>
-      <c r="D187" s="14"/>
-      <c r="E187" s="14"/>
-      <c r="F187" s="14"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="14">
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
         <v>2038</v>
       </c>
-      <c r="B188" s="14" t="s">
+      <c r="B188" t="s">
         <v>155</v>
       </c>
-      <c r="C188" s="20">
+      <c r="C188" s="4">
         <v>28000</v>
       </c>
-      <c r="D188" s="14"/>
-      <c r="E188" s="14"/>
-      <c r="F188" s="14"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="14">
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
         <v>2039</v>
       </c>
-      <c r="B189" s="14" t="s">
+      <c r="B189" t="s">
         <v>155</v>
       </c>
-      <c r="C189" s="20">
+      <c r="C189" s="4">
         <v>28000</v>
       </c>
-      <c r="D189" s="14"/>
-      <c r="E189" s="14"/>
-      <c r="F189" s="14"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="14">
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
         <v>2040</v>
       </c>
-      <c r="B190" s="14" t="s">
+      <c r="B190" t="s">
         <v>155</v>
       </c>
-      <c r="C190" s="20">
+      <c r="C190" s="4">
         <v>28000</v>
       </c>
-      <c r="D190" s="14"/>
-      <c r="E190" s="14"/>
-      <c r="F190" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -6852,7 +7538,7 @@
       <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="4">
         <f>1062*129.65*1000000</f>
         <v>137688300000.00003</v>
       </c>
@@ -6875,7 +7561,7 @@
       <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="16">
         <f>50*1000000*80</f>
         <v>4000000000</v>
       </c>
@@ -6887,7 +7573,7 @@
       <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="16">
         <f>C5*1.2</f>
         <v>4800000000</v>
       </c>
@@ -6899,7 +7585,7 @@
       <c r="B7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="16">
         <f t="shared" ref="C7:C11" si="0">C6*1.2</f>
         <v>5760000000</v>
       </c>
@@ -6911,7 +7597,7 @@
       <c r="B8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="16">
         <f t="shared" si="0"/>
         <v>6912000000</v>
       </c>
@@ -6923,7 +7609,7 @@
       <c r="B9" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="16">
         <f t="shared" si="0"/>
         <v>8294400000</v>
       </c>
@@ -6935,7 +7621,7 @@
       <c r="B10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="16">
         <f t="shared" si="0"/>
         <v>9953280000</v>
       </c>
@@ -6947,7 +7633,7 @@
       <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="16">
         <f t="shared" si="0"/>
         <v>11943936000</v>
       </c>
@@ -6959,7 +7645,7 @@
       <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="16">
         <f>C11*1.2</f>
         <v>14332723200</v>
       </c>
@@ -6976,8 +7662,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7003,67 +7689,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7663,7 +8349,7 @@
         <v>57</v>
       </c>
       <c r="I12">
-        <f>-1000000</f>
+        <f t="shared" ref="I12:I28" si="0">-1000000</f>
         <v>-1000000</v>
       </c>
       <c r="J12" t="s">
@@ -7694,7 +8380,7 @@
         <v>106</v>
       </c>
       <c r="T12">
-        <f>1/1000000</f>
+        <f t="shared" ref="T12:T28" si="1">1/1000000</f>
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -7724,7 +8410,7 @@
         <v>57</v>
       </c>
       <c r="I13">
-        <f>-1000000</f>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="J13" t="s">
@@ -7755,7 +8441,7 @@
         <v>106</v>
       </c>
       <c r="T13">
-        <f>1/1000000</f>
+        <f t="shared" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -7785,7 +8471,7 @@
         <v>57</v>
       </c>
       <c r="I14">
-        <f>-1000000</f>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="J14" t="s">
@@ -7816,7 +8502,7 @@
         <v>106</v>
       </c>
       <c r="T14">
-        <f>1/1000000</f>
+        <f t="shared" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -7846,7 +8532,7 @@
         <v>57</v>
       </c>
       <c r="I15">
-        <f>-1000000</f>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="J15" t="s">
@@ -7877,7 +8563,7 @@
         <v>106</v>
       </c>
       <c r="T15">
-        <f>1/1000000</f>
+        <f t="shared" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -7907,7 +8593,7 @@
         <v>57</v>
       </c>
       <c r="I16">
-        <f>-1000000</f>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="J16" t="s">
@@ -7938,7 +8624,7 @@
         <v>106</v>
       </c>
       <c r="T16">
-        <f>1/1000000</f>
+        <f t="shared" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -7968,7 +8654,7 @@
         <v>57</v>
       </c>
       <c r="I17">
-        <f>-1000000</f>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="J17" t="s">
@@ -7999,7 +8685,7 @@
         <v>106</v>
       </c>
       <c r="T17">
-        <f>1/1000000</f>
+        <f t="shared" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -8029,7 +8715,7 @@
         <v>57</v>
       </c>
       <c r="I18">
-        <f>-1000000</f>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="J18" t="s">
@@ -8060,7 +8746,7 @@
         <v>106</v>
       </c>
       <c r="T18">
-        <f>1/1000000</f>
+        <f t="shared" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -8090,7 +8776,7 @@
         <v>57</v>
       </c>
       <c r="I19">
-        <f>-1000000</f>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="J19" t="s">
@@ -8121,7 +8807,7 @@
         <v>106</v>
       </c>
       <c r="T19">
-        <f>1/1000000</f>
+        <f t="shared" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -8151,7 +8837,7 @@
         <v>57</v>
       </c>
       <c r="I20">
-        <f>-1000000</f>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="J20" t="s">
@@ -8182,7 +8868,7 @@
         <v>106</v>
       </c>
       <c r="T20">
-        <f>1/1000000</f>
+        <f t="shared" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -8212,7 +8898,7 @@
         <v>57</v>
       </c>
       <c r="I21">
-        <f>-1000000</f>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="J21" t="s">
@@ -8243,7 +8929,7 @@
         <v>106</v>
       </c>
       <c r="T21">
-        <f>1/1000000</f>
+        <f t="shared" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -8273,7 +8959,7 @@
         <v>57</v>
       </c>
       <c r="I22">
-        <f>-1000000</f>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="J22" t="s">
@@ -8304,7 +8990,7 @@
         <v>106</v>
       </c>
       <c r="T22">
-        <f>1/1000000</f>
+        <f t="shared" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -8334,7 +9020,7 @@
         <v>57</v>
       </c>
       <c r="I23">
-        <f>-1000000</f>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="J23" t="s">
@@ -8365,7 +9051,7 @@
         <v>106</v>
       </c>
       <c r="T23">
-        <f>1/1000000</f>
+        <f t="shared" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -8395,7 +9081,7 @@
         <v>57</v>
       </c>
       <c r="I24">
-        <f>-1000000</f>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="J24" t="s">
@@ -8426,7 +9112,7 @@
         <v>106</v>
       </c>
       <c r="T24">
-        <f>1/1000000</f>
+        <f t="shared" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -8456,7 +9142,7 @@
         <v>57</v>
       </c>
       <c r="I25">
-        <f>-1000000</f>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="J25" t="s">
@@ -8487,7 +9173,7 @@
         <v>106</v>
       </c>
       <c r="T25">
-        <f>1/1000000</f>
+        <f t="shared" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -8517,7 +9203,7 @@
         <v>57</v>
       </c>
       <c r="I26">
-        <f>-1000000</f>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="J26" t="s">
@@ -8548,7 +9234,7 @@
         <v>106</v>
       </c>
       <c r="T26">
-        <f>1/1000000</f>
+        <f t="shared" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -8578,7 +9264,7 @@
         <v>57</v>
       </c>
       <c r="I27">
-        <f>-1000000</f>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="J27" t="s">
@@ -8609,7 +9295,7 @@
         <v>106</v>
       </c>
       <c r="T27">
-        <f>1/1000000</f>
+        <f t="shared" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -8639,7 +9325,7 @@
         <v>57</v>
       </c>
       <c r="I28">
-        <f>-1000000</f>
+        <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
       <c r="J28" t="s">
@@ -8670,7 +9356,7 @@
         <v>106</v>
       </c>
       <c r="T28">
-        <f>1/1000000</f>
+        <f t="shared" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -9872,66 +10558,64 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
+      <c r="A51">
         <v>2022</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" t="s">
         <v>133</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" t="s">
         <v>86</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" t="s">
         <v>45</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51">
         <v>137</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="F51" t="s">
         <v>62</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51">
         <v>2066.4</v>
       </c>
-      <c r="H51" s="14" t="s">
+      <c r="H51" t="s">
         <v>63</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I51">
         <v>10.51</v>
       </c>
-      <c r="J51" s="14" t="s">
+      <c r="J51" t="s">
         <v>69</v>
       </c>
-      <c r="K51" s="14">
+      <c r="K51">
         <v>2.5</v>
       </c>
-      <c r="L51" s="14" t="s">
+      <c r="L51" t="s">
         <v>149</v>
       </c>
-      <c r="M51" s="14">
+      <c r="M51">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="N51" s="14" t="s">
+      <c r="N51" t="s">
         <v>36</v>
       </c>
-      <c r="O51" s="14" t="s">
+      <c r="O51" t="s">
         <v>173</v>
       </c>
-      <c r="P51" s="14" t="s">
+      <c r="P51" t="s">
         <v>60</v>
       </c>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14" t="s">
+      <c r="R51" t="s">
         <v>99</v>
       </c>
-      <c r="S51" s="14" t="s">
+      <c r="S51" t="s">
         <v>104</v>
       </c>
-      <c r="T51" s="14">
+      <c r="T51">
         <f>1/120/1000000</f>
         <v>8.3333333333333335E-9</v>
       </c>
-      <c r="U51" s="14"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -9958,7 +10642,7 @@
       <c r="H52" t="s">
         <v>81</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I52">
         <v>-353</v>
       </c>
       <c r="J52" t="s">
@@ -9984,122 +10668,115 @@
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="16">
+      <c r="A53">
         <v>2022</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" t="s">
         <v>86</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53">
         <v>56.5</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" t="s">
         <v>66</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G53">
         <v>865.1</v>
       </c>
-      <c r="H53" s="14" t="s">
+      <c r="H53" t="s">
         <v>81</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I53">
         <v>60</v>
       </c>
-      <c r="J53" s="14" t="s">
+      <c r="J53" t="s">
         <v>69</v>
       </c>
-      <c r="K53" s="14">
+      <c r="K53">
         <v>2.5</v>
       </c>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14" t="s">
+      <c r="O53" t="s">
         <v>167</v>
       </c>
-      <c r="P53" s="14" t="s">
+      <c r="P53" t="s">
         <v>60</v>
       </c>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14" t="s">
+      <c r="R53" t="s">
         <v>99</v>
       </c>
-      <c r="S53" s="14" t="s">
+      <c r="S53" t="s">
         <v>104</v>
       </c>
-      <c r="T53" s="14">
+      <c r="T53">
         <f>1/120/1000000</f>
         <v>8.3333333333333335E-9</v>
       </c>
-      <c r="U53" s="14"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="14">
+      <c r="A54">
         <v>2022</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" t="s">
         <v>45</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54">
         <v>18</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F54" t="s">
         <v>62</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54">
         <v>3600</v>
       </c>
-      <c r="H54" s="14" t="s">
+      <c r="H54" t="s">
         <v>63</v>
       </c>
-      <c r="I54" s="14">
-        <v>0</v>
-      </c>
-      <c r="J54" s="14" t="s">
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
         <v>69</v>
       </c>
-      <c r="K54" s="14">
+      <c r="K54">
         <v>3.4</v>
       </c>
-      <c r="L54" s="14" t="s">
+      <c r="L54" t="s">
         <v>151</v>
       </c>
-      <c r="M54" s="14">
+      <c r="M54">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N54" s="14" t="s">
+      <c r="N54" t="s">
         <v>36</v>
       </c>
-      <c r="O54" s="14" t="s">
+      <c r="O54" t="s">
         <v>163</v>
       </c>
-      <c r="P54" s="14" t="s">
+      <c r="P54" t="s">
         <v>60</v>
       </c>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14" t="s">
+      <c r="R54" t="s">
         <v>94</v>
       </c>
-      <c r="S54" s="14" t="s">
+      <c r="S54" t="s">
         <v>107</v>
       </c>
-      <c r="T54" s="14">
+      <c r="T54">
         <f>1/3.6/1000000</f>
         <v>2.7777777777777781E-7</v>
       </c>
-      <c r="U54" s="14"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -10126,7 +10803,7 @@
       <c r="H55" t="s">
         <v>81</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I55">
         <v>-440</v>
       </c>
       <c r="J55" t="s">
@@ -10152,543 +10829,511 @@
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="14">
+      <c r="A56">
         <v>2022</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" t="s">
         <v>45</v>
       </c>
-      <c r="E56" s="14">
-        <v>0</v>
-      </c>
-      <c r="F56" s="14" t="s">
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
         <v>62</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G56">
         <v>3600</v>
       </c>
-      <c r="H56" s="14" t="s">
+      <c r="H56" t="s">
         <v>63</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I56">
         <v>76.73</v>
       </c>
-      <c r="J56" s="14" t="s">
+      <c r="J56" t="s">
         <v>69</v>
       </c>
-      <c r="K56" s="14">
+      <c r="K56">
         <v>3.4</v>
       </c>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14" t="s">
+      <c r="O56" t="s">
         <v>162</v>
       </c>
-      <c r="P56" s="14" t="s">
+      <c r="P56" t="s">
         <v>60</v>
       </c>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="14" t="s">
+      <c r="R56" t="s">
         <v>94</v>
       </c>
-      <c r="S56" s="14" t="s">
+      <c r="S56" t="s">
         <v>107</v>
       </c>
-      <c r="T56" s="14">
+      <c r="T56">
         <f>1/3.6/1000000</f>
         <v>2.7777777777777781E-7</v>
       </c>
-      <c r="U56" s="14"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="16">
+      <c r="A57">
         <v>2022</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" t="s">
         <v>138</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" t="s">
         <v>114</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57">
         <v>1001</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="F57" t="s">
         <v>117</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57">
         <v>1</v>
       </c>
-      <c r="H57" s="14" t="s">
+      <c r="H57" t="s">
         <v>116</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I57">
         <f>-1000000</f>
         <v>-1000000</v>
       </c>
-      <c r="J57" s="14" t="s">
+      <c r="J57" t="s">
         <v>70</v>
       </c>
-      <c r="K57" s="14">
+      <c r="K57">
         <v>1</v>
       </c>
-      <c r="L57" s="14" t="s">
+      <c r="L57" t="s">
         <v>119</v>
       </c>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14" t="s">
+      <c r="O57" t="s">
         <v>138</v>
       </c>
-      <c r="P57" s="14" t="s">
+      <c r="P57" t="s">
         <v>67</v>
       </c>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="14" t="s">
+      <c r="R57" t="s">
         <v>138</v>
       </c>
-      <c r="S57" s="14" t="s">
+      <c r="S57" t="s">
         <v>106</v>
       </c>
-      <c r="T57" s="14">
+      <c r="T57">
         <f>1/1000000</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="U57" s="14"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="16">
+      <c r="A58">
         <v>2022</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" t="s">
         <v>114</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E58">
         <v>1001</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="F58" t="s">
         <v>117</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G58">
         <v>1</v>
       </c>
-      <c r="H58" s="14" t="s">
+      <c r="H58" t="s">
         <v>116</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I58">
         <f>-1000000</f>
         <v>-1000000</v>
       </c>
-      <c r="J58" s="14" t="s">
+      <c r="J58" t="s">
         <v>70</v>
       </c>
-      <c r="K58" s="14">
+      <c r="K58">
         <v>1</v>
       </c>
-      <c r="L58" s="14" t="s">
+      <c r="L58" t="s">
         <v>119</v>
       </c>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14" t="s">
+      <c r="O58" t="s">
         <v>113</v>
       </c>
-      <c r="P58" s="14" t="s">
+      <c r="P58" t="s">
         <v>67</v>
       </c>
-      <c r="Q58" s="14"/>
-      <c r="R58" s="14" t="s">
+      <c r="R58" t="s">
         <v>113</v>
       </c>
-      <c r="S58" s="14" t="s">
+      <c r="S58" t="s">
         <v>106</v>
       </c>
-      <c r="T58" s="14">
+      <c r="T58">
         <f>1/1000000</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="U58" s="14"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="16">
+      <c r="A59">
         <v>2022</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" t="s">
         <v>155</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" t="s">
         <v>114</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59">
         <v>1001</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="F59" t="s">
         <v>117</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G59">
         <v>1</v>
       </c>
-      <c r="H59" s="14" t="s">
+      <c r="H59" t="s">
         <v>116</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I59">
         <f>-1000000</f>
         <v>-1000000</v>
       </c>
-      <c r="J59" s="14" t="s">
+      <c r="J59" t="s">
         <v>70</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K59">
         <v>1</v>
       </c>
-      <c r="L59" s="14" t="s">
+      <c r="L59" t="s">
         <v>119</v>
       </c>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14" t="s">
+      <c r="O59" t="s">
         <v>155</v>
       </c>
-      <c r="P59" s="14" t="s">
+      <c r="P59" t="s">
         <v>67</v>
       </c>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="14" t="s">
+      <c r="R59" t="s">
         <v>155</v>
       </c>
-      <c r="S59" s="14" t="s">
+      <c r="S59" t="s">
         <v>106</v>
       </c>
-      <c r="T59" s="14">
+      <c r="T59">
         <f>1/1000000</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="U59" s="14"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="14">
+      <c r="A60">
         <v>2022</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" t="s">
         <v>33</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60">
         <f>872+53</f>
         <v>925</v>
       </c>
-      <c r="F60" s="14" t="s">
+      <c r="F60" t="s">
         <v>35</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60">
         <v>38878</v>
       </c>
-      <c r="H60" s="14" t="s">
+      <c r="H60" t="s">
         <v>34</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I60">
         <v>56</v>
       </c>
-      <c r="J60" s="14" t="s">
+      <c r="J60" t="s">
         <v>69</v>
       </c>
-      <c r="K60" s="14">
+      <c r="K60">
         <v>1</v>
       </c>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14">
+      <c r="M60">
         <v>1.9E-2</v>
       </c>
-      <c r="N60" s="14" t="s">
+      <c r="N60" t="s">
         <v>36</v>
       </c>
-      <c r="O60" s="14" t="s">
+      <c r="O60" t="s">
         <v>120</v>
       </c>
-      <c r="P60" s="14" t="s">
+      <c r="P60" t="s">
         <v>59</v>
       </c>
-      <c r="Q60" s="14"/>
-      <c r="R60" s="14" t="s">
+      <c r="R60" t="s">
         <v>32</v>
       </c>
-      <c r="S60" s="14" t="s">
+      <c r="S60" t="s">
         <v>103</v>
       </c>
-      <c r="T60" s="14">
+      <c r="T60">
         <f>1/129.65/1000000</f>
         <v>7.713073659853452E-9</v>
       </c>
-      <c r="U60" s="14" t="s">
+      <c r="U60" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="14">
+      <c r="A61">
         <v>2022</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" t="s">
         <v>30</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" t="s">
         <v>37</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61">
         <f>1069+53</f>
         <v>1122</v>
       </c>
-      <c r="F61" s="14" t="s">
+      <c r="F61" t="s">
         <v>35</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61">
         <v>37655</v>
       </c>
-      <c r="H61" s="14" t="s">
+      <c r="H61" t="s">
         <v>34</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I61">
         <v>31</v>
       </c>
-      <c r="J61" s="14" t="s">
+      <c r="J61" t="s">
         <v>69</v>
       </c>
-      <c r="K61" s="14">
+      <c r="K61">
         <v>1</v>
       </c>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14">
+      <c r="M61">
         <v>1.9E-2</v>
       </c>
-      <c r="N61" s="14" t="s">
+      <c r="N61" t="s">
         <v>36</v>
       </c>
-      <c r="O61" s="14" t="s">
+      <c r="O61" t="s">
         <v>161</v>
       </c>
-      <c r="P61" s="14" t="s">
+      <c r="P61" t="s">
         <v>59</v>
       </c>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="14" t="s">
+      <c r="R61" t="s">
         <v>32</v>
       </c>
-      <c r="S61" s="14" t="s">
+      <c r="S61" t="s">
         <v>103</v>
       </c>
-      <c r="T61" s="14">
+      <c r="T61">
         <f>1/129.65/1000000</f>
         <v>7.713073659853452E-9</v>
       </c>
-      <c r="U61" s="14"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="14">
+      <c r="A62">
         <v>2022</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" t="s">
         <v>39</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D62" t="s">
         <v>33</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62">
         <f>872+53+33</f>
         <v>958</v>
       </c>
-      <c r="F62" s="14" t="s">
+      <c r="F62" t="s">
         <v>35</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G62">
         <v>38878</v>
       </c>
-      <c r="H62" s="14" t="s">
+      <c r="H62" t="s">
         <v>34</v>
       </c>
-      <c r="I62" s="14">
+      <c r="I62">
         <f>I51</f>
         <v>10.51</v>
       </c>
-      <c r="J62" s="14" t="s">
+      <c r="J62" t="s">
         <v>69</v>
       </c>
-      <c r="K62" s="14">
+      <c r="K62">
         <v>1</v>
       </c>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14">
+      <c r="M62">
         <v>1.9E-2</v>
       </c>
-      <c r="N62" s="14" t="s">
+      <c r="N62" t="s">
         <v>36</v>
       </c>
-      <c r="O62" s="14" t="s">
+      <c r="O62" t="s">
         <v>120</v>
       </c>
-      <c r="P62" s="14" t="s">
+      <c r="P62" t="s">
         <v>60</v>
       </c>
-      <c r="Q62" s="14"/>
-      <c r="R62" s="14" t="s">
+      <c r="R62" t="s">
         <v>39</v>
       </c>
-      <c r="S62" s="14" t="s">
+      <c r="S62" t="s">
         <v>103</v>
       </c>
-      <c r="T62" s="14">
+      <c r="T62">
         <f>1/119.53/1000000</f>
         <v>8.3661005605287371E-9</v>
       </c>
-      <c r="U62" s="14"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" s="14">
+      <c r="A63">
         <v>2022</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" t="s">
         <v>39</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" t="s">
         <v>31</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" t="s">
         <v>37</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63">
         <f>1069+53+33</f>
         <v>1155</v>
       </c>
-      <c r="F63" s="14" t="s">
+      <c r="F63" t="s">
         <v>35</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G63">
         <v>37655</v>
       </c>
-      <c r="H63" s="14" t="s">
+      <c r="H63" t="s">
         <v>34</v>
       </c>
-      <c r="I63" s="14">
+      <c r="I63">
         <f>I52</f>
         <v>-353</v>
       </c>
-      <c r="J63" s="14" t="s">
+      <c r="J63" t="s">
         <v>69</v>
       </c>
-      <c r="K63" s="14">
+      <c r="K63">
         <v>1</v>
       </c>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14">
+      <c r="M63">
         <v>1.9E-2</v>
       </c>
-      <c r="N63" s="14" t="s">
+      <c r="N63" t="s">
         <v>36</v>
       </c>
-      <c r="O63" s="14" t="s">
+      <c r="O63" t="s">
         <v>165</v>
       </c>
-      <c r="P63" s="14" t="s">
+      <c r="P63" t="s">
         <v>60</v>
       </c>
-      <c r="Q63" s="14"/>
-      <c r="R63" s="14" t="s">
+      <c r="R63" t="s">
         <v>39</v>
       </c>
-      <c r="S63" s="14" t="s">
+      <c r="S63" t="s">
         <v>103</v>
       </c>
-      <c r="T63" s="14">
+      <c r="T63">
         <f>1/119.53/1000000</f>
         <v>8.3661005605287371E-9</v>
       </c>
-      <c r="U63" s="14"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="14">
+      <c r="A64">
         <v>2022</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" t="s">
         <v>41</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E64">
         <v>10</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F64" t="s">
         <v>64</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G64">
         <v>4528</v>
       </c>
-      <c r="H64" s="14" t="s">
+      <c r="H64" t="s">
         <v>68</v>
       </c>
-      <c r="I64" s="14">
+      <c r="I64">
         <v>100.45</v>
       </c>
-      <c r="J64" s="14" t="s">
+      <c r="J64" t="s">
         <v>69</v>
       </c>
-      <c r="K64" s="14">
+      <c r="K64">
         <v>1</v>
       </c>
-      <c r="L64" s="14" t="s">
+      <c r="L64" t="s">
         <v>84</v>
       </c>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14" t="s">
+      <c r="O64" t="s">
         <v>140</v>
       </c>
-      <c r="P64" s="14" t="s">
+      <c r="P64" t="s">
         <v>59</v>
       </c>
-      <c r="Q64" s="14"/>
-      <c r="R64" s="14" t="s">
+      <c r="R64" t="s">
         <v>108</v>
       </c>
-      <c r="S64" s="14" t="s">
+      <c r="S64" t="s">
         <v>103</v>
       </c>
-      <c r="T64" s="14">
+      <c r="T64">
         <f>1/134.47/1000000</f>
         <v>7.436602959767978E-9</v>
       </c>
-      <c r="U64" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -10698,6 +11343,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777DB08F-4BDF-4628-8C39-C35E3E8D9990}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A75E8CD-8C32-4144-B6AB-B258227B53B7}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -10715,19 +11386,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -10771,7 +11442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D161"/>
@@ -12530,7 +13201,7 @@
       <c r="B111" t="s">
         <v>47</v>
       </c>
-      <c r="C111" s="11">
+      <c r="C111" s="10">
         <f>50*1000000*80</f>
         <v>4000000000</v>
       </c>
@@ -12545,11 +13216,11 @@
       <c r="B112" t="s">
         <v>51</v>
       </c>
-      <c r="C112" s="14">
+      <c r="C112">
         <f>8330000*126.37</f>
         <v>1052662100</v>
       </c>
-      <c r="D112" s="17" t="s">
+      <c r="D112" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -12717,7 +13388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BU14"/>
@@ -13140,7 +13811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965B1EEA-2EEC-441F-8ABB-1A7E817F9800}">
   <dimension ref="A1:G49"/>
   <sheetViews>
@@ -13231,7 +13902,7 @@
       <c r="F4" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4">
         <v>89.37</v>
       </c>
     </row>
@@ -13468,7 +14139,7 @@
       <c r="B20" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>84.13</v>
       </c>
       <c r="D20" s="6">
@@ -13737,7 +14408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F4"/>
@@ -13772,1153 +14443,17 @@
       <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:N63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2020</v>
-      </c>
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2">
-        <v>6.3299999999999995E-2</v>
-      </c>
-      <c r="E2">
-        <v>7.0400000000000004E-2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2021</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3">
-        <v>6.3299999999999995E-2</v>
-      </c>
-      <c r="E3">
-        <v>7.0400000000000004E-2</v>
-      </c>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2022</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4">
-        <v>6.3299999999999995E-2</v>
-      </c>
-      <c r="E4">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2023</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5">
-        <v>6.3299999999999995E-2</v>
-      </c>
-      <c r="E5">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2024</v>
-      </c>
-      <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6">
-        <v>6.3299999999999995E-2</v>
-      </c>
-      <c r="E6">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2025</v>
-      </c>
-      <c r="B7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7">
-        <f>D6*0.6</f>
-        <v>3.7979999999999993E-2</v>
-      </c>
-      <c r="E7">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2026</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ref="D8:D12" si="0">D7*0.6</f>
-        <v>2.2787999999999996E-2</v>
-      </c>
-      <c r="E8">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2027</v>
-      </c>
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1.3672799999999997E-2</v>
-      </c>
-      <c r="E9">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2028</v>
-      </c>
-      <c r="B10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2029</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2030</v>
-      </c>
-      <c r="B12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2031</v>
-      </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ref="D13:D32" si="1">D12*0.9</f>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2032</v>
-      </c>
-      <c r="B14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>7.0400000000000004E-2</v>
-      </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2033</v>
-      </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>7.0400000000000004E-2</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2034</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2035</v>
-      </c>
-      <c r="B17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2036</v>
-      </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2037</v>
-      </c>
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2038</v>
-      </c>
-      <c r="B20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2039</v>
-      </c>
-      <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2040</v>
-      </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2041</v>
-      </c>
-      <c r="B23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2042</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2043</v>
-      </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2044</v>
-      </c>
-      <c r="B26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2045</v>
-      </c>
-      <c r="B27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2046</v>
-      </c>
-      <c r="B28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2047</v>
-      </c>
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2048</v>
-      </c>
-      <c r="B30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2049</v>
-      </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2050</v>
-      </c>
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2020</v>
-      </c>
-      <c r="B33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0.161</v>
-      </c>
-      <c r="F33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2021</v>
-      </c>
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2022</v>
-      </c>
-      <c r="B35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2023</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2024</v>
-      </c>
-      <c r="B37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2025</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2026</v>
-      </c>
-      <c r="B39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>2027</v>
-      </c>
-      <c r="B40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>2028</v>
-      </c>
-      <c r="B41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2029</v>
-      </c>
-      <c r="B42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>2030</v>
-      </c>
-      <c r="B43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>2031</v>
-      </c>
-      <c r="B44" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>2032</v>
-      </c>
-      <c r="B45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>2033</v>
-      </c>
-      <c r="B46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>2034</v>
-      </c>
-      <c r="B47" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>2035</v>
-      </c>
-      <c r="B48" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>2036</v>
-      </c>
-      <c r="B49" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>2037</v>
-      </c>
-      <c r="B50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>2038</v>
-      </c>
-      <c r="B51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>2039</v>
-      </c>
-      <c r="B52" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>2040</v>
-      </c>
-      <c r="B53" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>2041</v>
-      </c>
-      <c r="B54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>2042</v>
-      </c>
-      <c r="B55" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>2043</v>
-      </c>
-      <c r="B56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>2044</v>
-      </c>
-      <c r="B57" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>2045</v>
-      </c>
-      <c r="B58" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>2046</v>
-      </c>
-      <c r="B59" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>2047</v>
-      </c>
-      <c r="B60" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>2048</v>
-      </c>
-      <c r="B61" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>2049</v>
-      </c>
-      <c r="B62" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>2050</v>
-      </c>
-      <c r="B63" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0.161</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>